--- a/Резы/Респа для ОЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ОЕ-61б на 2019 год.xlsx
@@ -1296,7 +1296,7 @@
     <col width="103.95" customWidth="1" min="5" max="5"/>
     <col width="92.34999999999999" customWidth="1" min="6" max="6"/>
     <col width="101.05" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
     <col width="23.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -1792,8 +1792,10 @@
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H16" s="3" t="n">
-        <v>203</v>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>203, 316</t>
+        </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
@@ -2500,7 +2502,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="J17" s="3" t="inlineStr">
         <is>
@@ -2580,7 +2582,7 @@
     <col width="101.05" customWidth="1" min="5" max="5"/>
     <col width="101.05" customWidth="1" min="6" max="6"/>
     <col width="89.45" customWidth="1" min="7" max="7"/>
-    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="23.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
@@ -2671,7 +2673,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>301, 110
+          <t>301
 110</t>
         </is>
       </c>
@@ -3187,7 +3189,7 @@
       </c>
       <c r="G17" s="16" t="n"/>
       <c r="H17" s="3" t="n">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>

--- a/Резы/Респа для ОЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для ОЕ-61б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -145,63 +145,63 @@
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -229,14 +229,14 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -264,6 +264,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -274,16 +282,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -662,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -681,7 +681,7 @@
     <col width="92.34999999999999" customWidth="1" min="6" max="6"/>
     <col width="89.45" customWidth="1" min="7" max="7"/>
     <col width="103.95" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
     <col width="23.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -740,7 +740,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -753,7 +753,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Метрология, стандартизация и сертификация в инфокоммуникацих: лекция (общ)</t>
+          <t>День самоподготовки: рейд (общ)</t>
         </is>
       </c>
       <c r="E2" s="5" t="n"/>
@@ -762,147 +762,181 @@
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация в инфокоммуникацих: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
           <t>VII</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J3" s="7" t="inlineStr">
         <is>
           <t>Калугина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: лекция (общ)</t>
         </is>
       </c>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J4" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="7" t="n"/>
-      <c r="B4" s="3" t="n">
+    <row r="5" ht="51" customHeight="1">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>Физическая культура и спорт: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ПР (общ)</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="10" t="n"/>
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>ФЗК_зал
 301</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J5" s="7" t="inlineStr">
         <is>
           <t>Чащихин А.В.
 Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="9" t="n">
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D5" s="10" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
+      <c r="D6" s="13" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="G5" s="13" t="n"/>
-      <c r="H5" s="14" t="n"/>
-      <c r="I5" s="9" t="inlineStr">
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="J5" s="9" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="68" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+    <row r="7" ht="68" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Физическая культура и спорт: ПР (общ)</t>
         </is>
       </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="4" t="inlineStr">
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: ЛБ (1)
 Интегральные и оптические сети: ЛБ (2)</t>
         </is>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>ФЗК_зал
 301
 312</t>
         </is>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>Чащихин А.В.
 Шестаков И.И.
@@ -910,363 +944,368 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="9" t="n">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: лекция (общ)</t>
         </is>
       </c>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="14" t="n"/>
-      <c r="I7" s="9" t="n">
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="J7" s="9" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B9" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D8" s="16" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="15" t="n"/>
-    </row>
-    <row r="9" ht="51" customHeight="1">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="3" t="n">
+      <c r="D9" s="16" t="n"/>
+      <c r="I9" s="15" t="n"/>
+      <c r="J9" s="15" t="n"/>
+    </row>
+    <row r="10" ht="51" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Интегральные оптические сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ПР (общ)</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+      <c r="H10" s="10" t="n"/>
+      <c r="I10" s="7" t="inlineStr">
         <is>
           <t>101
 421</t>
         </is>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J10" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.
 Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="3" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-      <c r="H10" s="6" t="n"/>
-      <c r="I10" s="3" t="n">
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
+      <c r="H11" s="10" t="n"/>
+      <c r="I11" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J11" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="9" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D11" s="10" t="n"/>
-      <c r="E11" s="12" t="inlineStr">
+      <c r="D12" s="13" t="n"/>
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="14" t="n"/>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>ФЗК_зал</t>
-        </is>
-      </c>
-      <c r="J11" s="9" t="inlineStr">
-        <is>
-          <t>Чащихин А.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>ПТ</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Сети связи и системы коммутации: лекция (общ)</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="n"/>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="n"/>
       <c r="H12" s="6" t="n"/>
       <c r="I12" s="3" t="inlineStr">
         <is>
+          <t>ФЗК_зал</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>Чащихин А.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Сети связи и системы коммутации: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="9" t="n"/>
+      <c r="H13" s="10" t="n"/>
+      <c r="I13" s="7" t="inlineStr">
+        <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J13" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="3" t="n">
+    <row r="14" ht="51" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)
 Сети связи и системы коммутации: ЛБ (1)</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)
 Сети связи и системы коммутации: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>301
 421</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="3" t="n">
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: лекция (общ)</t>
         </is>
       </c>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="5" t="n"/>
-      <c r="H14" s="6" t="n"/>
-      <c r="I14" s="3" t="n">
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J15" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="9" t="n">
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Оптические направлаяющие среды: лекция (общ)</t>
         </is>
       </c>
-      <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="13" t="n"/>
-      <c r="H15" s="14" t="n"/>
-      <c r="I15" s="9" t="n">
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
+      <c r="H16" s="6" t="n"/>
+      <c r="I16" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="J15" s="9" t="inlineStr">
+      <c r="J16" s="3" t="inlineStr">
         <is>
           <t>Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="17" ht="51" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ПР (общ)</t>
         </is>
       </c>
-      <c r="E16" s="16" t="n"/>
-      <c r="H16" s="4" t="inlineStr">
-        <is>
-          <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ПР (общ)</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>203</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="E17" s="16" t="n"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ПР (общ)
+Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (1)</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr">
+        <is>
+          <t>203, 316</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr">
         <is>
           <t>Калугина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="9" t="n">
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D17" s="17" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="11" t="n"/>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="17" t="n"/>
-      <c r="I17" s="8" t="n"/>
-      <c r="J17" s="8" t="n"/>
+      <c r="D18" s="17" t="n"/>
+      <c r="E18" s="13" t="n"/>
+      <c r="F18" s="14" t="n"/>
+      <c r="G18" s="14" t="n"/>
+      <c r="H18" s="17" t="n"/>
+      <c r="I18" s="12" t="n"/>
+      <c r="J18" s="12" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="27">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="D13:H13"/>
     <mergeCell ref="D15:H15"/>
-    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D16:H16"/>
     <mergeCell ref="E17:G17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1278,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1350,7 +1389,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -1363,7 +1402,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Метрология, стандартизация и сертификация в инфокоммуникацих: лекция (общ)</t>
+          <t>День самоподготовки: рейд (общ)</t>
         </is>
       </c>
       <c r="E2" s="5" t="n"/>
@@ -1371,289 +1410,289 @@
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="3" t="inlineStr">
         <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация в инфокоммуникацих: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="10" t="n"/>
+      <c r="H3" s="7" t="inlineStr">
+        <is>
           <t>VII</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I3" s="7" t="inlineStr">
         <is>
           <t>Калугина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: лекция (общ)</t>
         </is>
       </c>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="10" t="n"/>
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="9" t="n">
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ПР (общ)</t>
         </is>
       </c>
-      <c r="E4" s="14" t="n"/>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="E5" s="6" t="n"/>
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G4" s="10" t="n"/>
-      <c r="H4" s="9" t="n">
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="51" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="6" ht="51" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: ЛБ (1)
 Интегральные и оптические сети: ЛБ (2)</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="7" t="inlineStr">
         <is>
           <t>301
 312</t>
         </is>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.
 Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: лекция (общ)</t>
         </is>
       </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="3" t="n">
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="8" t="n"/>
-      <c r="B7" s="9" t="n">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>Физическая культура и спорт: ПР (общ)</t>
         </is>
       </c>
-      <c r="E7" s="14" t="n"/>
-      <c r="F7" s="12" t="inlineStr">
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="G7" s="14" t="n"/>
-      <c r="H7" s="9" t="inlineStr">
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="I7" s="9" t="inlineStr">
+      <c r="I8" s="3" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B8" s="15" t="n">
+      <c r="B9" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="inlineStr">
+      <c r="C9" s="15" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D8" s="16" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="15" t="n"/>
-    </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="7" t="n"/>
-      <c r="B9" s="3" t="n">
+      <c r="D9" s="16" t="n"/>
+      <c r="H9" s="15" t="n"/>
+      <c r="I9" s="15" t="n"/>
+    </row>
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="3" t="n">
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="10" t="n"/>
+      <c r="H10" s="7" t="n">
         <v>421</v>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="3" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="3" t="n">
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="10" t="n"/>
+      <c r="H11" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I11" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="9" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="12" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
-        </is>
-      </c>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="14" t="n"/>
-      <c r="H11" s="9" t="inlineStr">
-        <is>
-          <t>ФЗК_зал</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Чащихин А.В.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>ПТ</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Сети связи и системы коммутации: лекция (общ)</t>
         </is>
       </c>
       <c r="E12" s="5" t="n"/>
@@ -1661,190 +1700,225 @@
       <c r="G12" s="6" t="n"/>
       <c r="H12" s="3" t="inlineStr">
         <is>
+          <t>ФЗК_зал</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>Чащихин А.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>ПТ</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Сети связи и системы коммутации: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E13" s="9" t="n"/>
+      <c r="F13" s="9" t="n"/>
+      <c r="G13" s="10" t="n"/>
+      <c r="H13" s="7" t="inlineStr">
+        <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="I12" s="3" t="inlineStr">
+      <c r="I13" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" s="7" t="n"/>
-      <c r="B13" s="3" t="n">
+    <row r="14" ht="51" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)
 Сети связи и системы коммутации: ЛБ (1)</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)
 Сети связи и системы коммутации: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>301
 421</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="3" t="n">
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: лекция (общ)</t>
         </is>
       </c>
-      <c r="E14" s="5" t="n"/>
-      <c r="F14" s="5" t="n"/>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="3" t="n">
+      <c r="E15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
+      <c r="G15" s="10" t="n"/>
+      <c r="H15" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I15" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="8" t="n"/>
-      <c r="B15" s="9" t="n">
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="12" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="9" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>Оптические направлаяющие среды: лекция (общ)</t>
         </is>
       </c>
-      <c r="E15" s="13" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="14" t="n"/>
-      <c r="H15" s="9" t="n">
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="I15" s="9" t="inlineStr">
+      <c r="I16" s="3" t="inlineStr">
         <is>
           <t>Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B17" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="D17" s="16" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ПР (общ)</t>
         </is>
       </c>
-      <c r="F16" s="18" t="n"/>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="F17" s="18" t="n"/>
+      <c r="G17" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="H17" s="7" t="inlineStr">
         <is>
           <t>203, 316</t>
         </is>
       </c>
-      <c r="I16" s="3" t="inlineStr">
+      <c r="I17" s="7" t="inlineStr">
         <is>
           <t>Калугина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="8" t="n"/>
-      <c r="B17" s="9" t="n">
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="12" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="9" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D17" s="10" t="n"/>
-      <c r="E17" s="19" t="n"/>
-      <c r="F17" s="20" t="n"/>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="8" t="n"/>
-      <c r="I17" s="8" t="n"/>
+      <c r="D18" s="13" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="20" t="n"/>
+      <c r="G18" s="17" t="n"/>
+      <c r="H18" s="12" t="n"/>
+      <c r="I18" s="12" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D13:G13"/>
     <mergeCell ref="D15:G15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1856,7 +1930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1871,7 +1945,7 @@
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="20.5" customWidth="1" min="3" max="3"/>
     <col width="108.3" customWidth="1" min="4" max="4"/>
-    <col width="92.34999999999999" customWidth="1" min="5" max="5"/>
+    <col width="101.05" customWidth="1" min="5" max="5"/>
     <col width="101.05" customWidth="1" min="6" max="6"/>
     <col width="101.05" customWidth="1" min="7" max="7"/>
     <col width="101.05" customWidth="1" min="8" max="8"/>
@@ -1934,7 +2008,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -1947,7 +2021,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Метрология, стандартизация и сертификация в инфокоммуникацих: лекция (общ)</t>
+          <t>День самоподготовки: рейд (общ)</t>
         </is>
       </c>
       <c r="E2" s="5" t="n"/>
@@ -1956,196 +2030,230 @@
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация в инфокоммуникацих: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="n"/>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" s="9" t="n"/>
+      <c r="H3" s="10" t="n"/>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
           <t>VII</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J3" s="7" t="inlineStr">
         <is>
           <t>Калугина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="51" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="51" customHeight="1">
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Физическая культура и спорт: ПР (общ)</t>
         </is>
       </c>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="E4" s="10" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="10" t="n"/>
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>ФЗК_зал
 301</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J4" s="7" t="inlineStr">
         <is>
           <t>Чащихин А.В.
 Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="9" t="n">
+    <row r="5" ht="51" customHeight="1">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G4" s="12" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H4" s="12" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)</t>
         </is>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I5" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.
 Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="51" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="6" ht="51" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: ЛБ (1)
 Интегральные и оптические сети: ЛБ (2)</t>
         </is>
       </c>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="16" t="n"/>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="16" t="n"/>
+      <c r="I6" s="7" t="inlineStr">
         <is>
           <t>301
 312</t>
         </is>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J6" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.
 Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: лекция (общ)</t>
         </is>
       </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="16" t="n"/>
-      <c r="I6" s="3" t="n">
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="16" t="n"/>
+      <c r="I7" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="85" customHeight="1">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="3" t="n">
+    <row r="8" ht="85" customHeight="1">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)
 Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ЛБ (1)
 Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H7" s="16" t="n"/>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="7" t="inlineStr">
         <is>
           <t>ФЗК_зал
 301
@@ -2153,7 +2261,7 @@
 110</t>
         </is>
       </c>
-      <c r="J7" s="3" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>Чащихин А.В.
 Шестаков И.И.
@@ -2162,397 +2270,404 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="9" t="n">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="12" t="inlineStr">
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="13" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="9" t="inlineStr">
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="J8" s="9" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ПР (общ)</t>
         </is>
       </c>
-      <c r="F9" s="16" t="n"/>
-      <c r="I9" s="3" t="n">
+      <c r="F10" s="16" t="n"/>
+      <c r="I10" s="7" t="n">
         <v>110</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J10" s="7" t="inlineStr">
         <is>
           <t>Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="3" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ПР (общ)</t>
         </is>
       </c>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="3" t="n">
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="10" t="n"/>
+      <c r="H11" s="16" t="n"/>
+      <c r="I11" s="7" t="n">
         <v>421</v>
       </c>
-      <c r="J10" s="3" t="inlineStr">
+      <c r="J11" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="3" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="16" t="n"/>
-      <c r="I11" s="3" t="n">
+      <c r="E12" s="9" t="n"/>
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="16" t="n"/>
+      <c r="I12" s="7" t="n">
         <v>101</v>
       </c>
-      <c r="J11" s="3" t="inlineStr">
+      <c r="J12" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="8" t="n"/>
-      <c r="B12" s="9" t="n">
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D12" s="12" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="E12" s="13" t="n"/>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="10" t="n"/>
-      <c r="I12" s="9" t="inlineStr">
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="13" t="n"/>
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="J12" s="9" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
+    <row r="14" ht="51" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)
 Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H13" s="16" t="n"/>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>301
 110</t>
         </is>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J14" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="51" customHeight="1">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="3" t="n">
+    <row r="15" ht="51" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)
 Сети связи и системы коммутации: ЛБ (1)</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H14" s="16" t="n"/>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="H15" s="16" t="n"/>
+      <c r="I15" s="7" t="inlineStr">
         <is>
           <t>301
 421</t>
         </is>
       </c>
-      <c r="J14" s="3" t="inlineStr">
+      <c r="J15" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="3" t="n">
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: лекция (общ)</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ПР (общ)</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="16" t="n"/>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="16" t="n"/>
+      <c r="I16" s="7" t="inlineStr">
         <is>
           <t>101, 401</t>
         </is>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J16" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="9" t="n">
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D16" s="12" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>Оптические направлаяющие среды: лекция (общ)</t>
         </is>
       </c>
-      <c r="E16" s="13" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="14" t="n"/>
-      <c r="H16" s="10" t="n"/>
-      <c r="I16" s="9" t="n">
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="13" t="n"/>
+      <c r="I17" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="J16" s="9" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (2)</t>
         </is>
       </c>
-      <c r="E17" s="16" t="n"/>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (1)</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
+      <c r="G18" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H17" s="4" t="inlineStr">
+      <c r="H18" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (2)</t>
         </is>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I18" s="7" t="n">
         <v>316</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
+      <c r="J18" s="7" t="inlineStr">
         <is>
           <t>Калугина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="34" customHeight="1">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="9" t="n">
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D18" s="17" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="17" t="n"/>
-      <c r="G18" s="17" t="n"/>
-      <c r="H18" s="17" t="n"/>
-      <c r="I18" s="8" t="n"/>
-      <c r="J18" s="8" t="n"/>
+      <c r="D19" s="17" t="n"/>
+      <c r="E19" s="17" t="n"/>
+      <c r="F19" s="17" t="n"/>
+      <c r="G19" s="17" t="n"/>
+      <c r="H19" s="17" t="n"/>
+      <c r="I19" s="12" t="n"/>
+      <c r="J19" s="12" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="26">
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2564,7 +2679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2633,10 +2748,10 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="51" customHeight="1">
+    <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -2649,214 +2764,247 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="5" t="n"/>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="51" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)
 Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)
 Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)
 Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)
 Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>301
 110</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="I3" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="11" t="n"/>
+      <c r="B4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="3" t="n">
+      <c r="E4" s="9" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="10" t="n"/>
+      <c r="H4" s="7" t="n">
         <v>301</v>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I4" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="51" customHeight="1">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="9" t="n">
+    <row r="5" ht="51" customHeight="1">
+      <c r="A5" s="12" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D4" s="12" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G4" s="10" t="n"/>
-      <c r="H4" s="8" t="n"/>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="G5" s="13" t="n"/>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.
 Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B6" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G6" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H6" s="7" t="n">
         <v>110</v>
       </c>
-      <c r="I5" s="3" t="inlineStr">
+      <c r="I6" s="7" t="inlineStr">
         <is>
           <t>Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="7" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="11" t="n"/>
+      <c r="B7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ПР (общ)</t>
         </is>
       </c>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="3" t="n">
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="10" t="n"/>
+      <c r="H7" s="7" t="n">
         <v>301</v>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I7" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="68" customHeight="1">
-      <c r="A7" s="7" t="n"/>
-      <c r="B7" s="3" t="n">
+    <row r="8" ht="68" customHeight="1">
+      <c r="A8" s="11" t="n"/>
+      <c r="B8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ЛБ (1)
 Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ЛБ (1)
 Оптические направляющие среды: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (1)
 Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>301
 421
 110</t>
         </is>
       </c>
-      <c r="I7" s="3" t="inlineStr">
+      <c r="I8" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.
 Букрина Е.В.
@@ -2864,377 +3012,379 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="9" t="n">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="12" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D8" s="12" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="E8" s="13" t="n"/>
-      <c r="F8" s="13" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="9" t="inlineStr">
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="I8" s="9" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B10" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D9" s="16" t="n"/>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F9" s="16" t="n"/>
-      <c r="H9" s="3" t="n">
+      <c r="F10" s="16" t="n"/>
+      <c r="H10" s="7" t="n">
         <v>301</v>
       </c>
-      <c r="I9" s="3" t="inlineStr">
+      <c r="I10" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="51" customHeight="1">
-      <c r="A10" s="7" t="n"/>
-      <c r="B10" s="3" t="n">
+    <row r="11" ht="51" customHeight="1">
+      <c r="A11" s="11" t="n"/>
+      <c r="B11" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D10" s="16" t="n"/>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="D11" s="16" t="n"/>
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ПР (общ)</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H11" s="7" t="inlineStr">
         <is>
           <t>421
 301</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="I11" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.
 Кусайкин Д.В.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="7" t="n"/>
-      <c r="B11" s="3" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D11" s="16" t="n"/>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>Интегральные и оптические сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="3" t="n">
+      <c r="F12" s="9" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="7" t="n">
         <v>301</v>
       </c>
-      <c r="I11" s="3" t="inlineStr">
+      <c r="I12" s="7" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="8" t="n"/>
-      <c r="B12" s="9" t="n">
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="12" t="n"/>
+      <c r="B13" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="9" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D12" s="10" t="n"/>
-      <c r="E12" s="12" t="inlineStr">
+      <c r="D13" s="13" t="n"/>
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре и спорту: ПР (общ)</t>
         </is>
       </c>
-      <c r="F12" s="13" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="9" t="inlineStr">
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" s="3" t="inlineStr">
         <is>
           <t>ФЗК_зал</t>
         </is>
       </c>
-      <c r="I12" s="9" t="inlineStr">
+      <c r="I13" s="3" t="inlineStr">
         <is>
           <t>Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="51" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
+    <row r="14" ht="51" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B14" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D13" s="16" t="n"/>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Оптические направляющие среды: ЛБ (2)</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
         <is>
           <t>Оптические цифровые телекоммуникационные системы: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>301
 110</t>
         </is>
       </c>
-      <c r="I13" s="3" t="inlineStr">
+      <c r="I14" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="7" t="n"/>
-      <c r="B14" s="3" t="n">
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D14" s="16" t="n"/>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="D15" s="16" t="n"/>
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Сети связи и системы коммутации: ЛБ (2)</t>
         </is>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H15" s="7" t="n">
         <v>421</v>
       </c>
-      <c r="I14" s="3" t="inlineStr">
+      <c r="I15" s="7" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="51" customHeight="1">
-      <c r="A15" s="7" t="n"/>
-      <c r="B15" s="3" t="n">
+    <row r="16" ht="51" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D15" s="16" t="n"/>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t>Метрология в оптических телекоммуникационных системах: ПР (общ)</t>
         </is>
       </c>
-      <c r="F15" s="6" t="n"/>
-      <c r="G15" s="4" t="inlineStr">
+      <c r="F16" s="10" t="n"/>
+      <c r="G16" s="8" t="inlineStr">
         <is>
           <t>Элективные дисциплины по физической культуре: ПР (общ)</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="H16" s="7" t="inlineStr">
         <is>
           <t>401
 ФЗК_зал</t>
         </is>
       </c>
-      <c r="I15" s="3" t="inlineStr">
+      <c r="I16" s="7" t="inlineStr">
         <is>
           <t>Кусайкин Д.В.
 Чащихин А.В.</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="8" t="n"/>
-      <c r="B16" s="9" t="n">
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="12" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="9" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>14:20 - 15:55</t>
         </is>
       </c>
-      <c r="D16" s="10" t="n"/>
-      <c r="E16" s="12" t="inlineStr">
+      <c r="D17" s="13" t="n"/>
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Оптические направлаяющие среды: ПР (общ)</t>
         </is>
       </c>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="14" t="n"/>
-      <c r="H16" s="9" t="n">
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="H17" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="I16" s="9" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>Гниломедов Е.И.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="34" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
+    <row r="18" ht="34" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B18" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D17" s="4" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (1)</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (2)</t>
         </is>
       </c>
-      <c r="F17" s="4" t="inlineStr">
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (1)</t>
         </is>
       </c>
-      <c r="G17" s="16" t="n"/>
-      <c r="H17" s="3" t="n">
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="7" t="n">
         <v>316</v>
       </c>
-      <c r="I17" s="3" t="inlineStr">
+      <c r="I18" s="7" t="inlineStr">
         <is>
           <t>Калугина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="34" customHeight="1">
-      <c r="A18" s="8" t="n"/>
-      <c r="B18" s="9" t="n">
+    <row r="19" ht="34" customHeight="1">
+      <c r="A19" s="12" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D18" s="17" t="n"/>
-      <c r="E18" s="17" t="n"/>
-      <c r="F18" s="17" t="n"/>
-      <c r="G18" s="10" t="n"/>
-      <c r="H18" s="8" t="n"/>
-      <c r="I18" s="8" t="n"/>
+      <c r="D19" s="17" t="n"/>
+      <c r="E19" s="17" t="n"/>
+      <c r="F19" s="17" t="n"/>
+      <c r="G19" s="13" t="n"/>
+      <c r="H19" s="12" t="n"/>
+      <c r="I19" s="12" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="E11:G11"/>
+  <mergeCells count="21">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
